--- a/data/yummy_recipes.xlsx
+++ b/data/yummy_recipes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\meal-plan\meal-plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA459221-052D-4578-8C93-EACEA376F964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F94C61-CD32-47DA-85B1-7AD04C0F088E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="recipes" sheetId="1" r:id="rId1"/>
+    <sheet name="additional" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>https://www.allrecipes.com/recipe/158968/spinach-and-feta-turkey-burgers/</t>
   </si>
@@ -34,6 +35,33 @@
   </si>
   <si>
     <t>urls</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>1 bag of Barbeque Chips</t>
+  </si>
+  <si>
+    <t>1 loaf of sliced bread</t>
+  </si>
+  <si>
+    <t>1 package of colby jack cheese</t>
+  </si>
+  <si>
+    <t>1 package of sliced turkey</t>
+  </si>
+  <si>
+    <t>paper towels</t>
+  </si>
+  <si>
+    <t>non-ingredient</t>
+  </si>
+  <si>
+    <t>toilet paper</t>
   </si>
 </sst>
 </file>
@@ -365,26 +393,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="72.5703125" customWidth="1"/>
+    <col min="1" max="1" width="72.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -397,4 +425,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63316E3-DAF7-448C-A1AD-F7E443C3762C}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="55.83984375" customWidth="1"/>
+    <col min="2" max="2" width="19.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/yummy_recipes.xlsx
+++ b/data/yummy_recipes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\meal-plan\meal-plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F94C61-CD32-47DA-85B1-7AD04C0F088E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933842FC-D29C-4846-BF56-7465C02745AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="recipes" sheetId="1" r:id="rId1"/>
     <sheet name="additional" sheetId="2" r:id="rId2"/>
+    <sheet name="all_additional_items" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>https://www.allrecipes.com/recipe/158968/spinach-and-feta-turkey-burgers/</t>
-  </si>
-  <si>
-    <t>https://www.allrecipes.com/recipe/279938/egg-salad-with-celery/</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>urls</t>
   </si>
@@ -43,15 +38,9 @@
     <t>type</t>
   </si>
   <si>
-    <t>1 bag of Barbeque Chips</t>
-  </si>
-  <si>
     <t>1 loaf of sliced bread</t>
   </si>
   <si>
-    <t>1 package of colby jack cheese</t>
-  </si>
-  <si>
     <t>1 package of sliced turkey</t>
   </si>
   <si>
@@ -62,6 +51,114 @@
   </si>
   <si>
     <t>toilet paper</t>
+  </si>
+  <si>
+    <t>1 bag of chips</t>
+  </si>
+  <si>
+    <t>tin-foil</t>
+  </si>
+  <si>
+    <t>bag of bagels</t>
+  </si>
+  <si>
+    <t>1 carton of milk</t>
+  </si>
+  <si>
+    <t>strawberries</t>
+  </si>
+  <si>
+    <t>blueberries</t>
+  </si>
+  <si>
+    <t>cherries</t>
+  </si>
+  <si>
+    <t>bag of steamed vegetables</t>
+  </si>
+  <si>
+    <t>spaghetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tortellini </t>
+  </si>
+  <si>
+    <t>ravioli</t>
+  </si>
+  <si>
+    <t>flavored rice packages</t>
+  </si>
+  <si>
+    <t>canned soup</t>
+  </si>
+  <si>
+    <t>frozen pizza</t>
+  </si>
+  <si>
+    <t>premade wings</t>
+  </si>
+  <si>
+    <t>premade roticery chicken</t>
+  </si>
+  <si>
+    <t>granola</t>
+  </si>
+  <si>
+    <t>3 apples</t>
+  </si>
+  <si>
+    <t>vanilla yogurt</t>
+  </si>
+  <si>
+    <t>1 carton of eggs</t>
+  </si>
+  <si>
+    <t>colby jack cheese</t>
+  </si>
+  <si>
+    <t>hotdogs</t>
+  </si>
+  <si>
+    <t>box of cherios</t>
+  </si>
+  <si>
+    <t>https://www.yummly.com/recipe/Easy-Khachapuri-9139675?prm-v1</t>
+  </si>
+  <si>
+    <t>ramen noodles</t>
+  </si>
+  <si>
+    <t>hummus</t>
+  </si>
+  <si>
+    <t>pita bread</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/228774/emergency-chicken/</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/236502/inside-out-grilled-cheese-sandwich/</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/19632/turkey-burgers/</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/16311/simple-beef-stroganoff/</t>
+  </si>
+  <si>
+    <t>baked potato</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/255462/lasagna-flatbread/</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/242503/soy-honey-glazed-salmon-with-asparagus/</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/265472/vegan-sweet-potato-chickpea-curry/</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/228823/quick-beef-stir-fry/</t>
   </si>
 </sst>
 </file>
@@ -85,12 +182,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,10 +209,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -391,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -404,35 +508,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{299103F4-E4DA-4951-B4B1-62B4CB27116F}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{CCC3B044-359F-48B1-9A8D-21636C580E75}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{71C9C92E-BCB9-48B7-8EA1-01F04EC14AA2}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{041221A0-58DC-46C0-AE5C-0FDBB4B2D85B}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{87A068A2-7D1F-40C1-A42C-6BD1F63A02FC}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{B51DFFE0-ECEE-4DB7-ADC0-33533948F5D1}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{D92C971C-5BB3-47F3-8B5E-578160F9A731}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{23EAD6D1-3091-4AE4-AC20-26589C907067}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{7BA0013B-003C-4794-AA79-A5CFD1D497AD}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{BAA8351E-A85B-49ED-92D1-343D076DC86B}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{C0BCD335-A9A2-4D9D-9F79-C2DAF870EAAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63316E3-DAF7-448C-A1AD-F7E443C3762C}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -443,37 +589,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -481,8 +624,166 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9BC077-CABC-40DD-9533-1D01791B0D65}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="33.578125" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/yummy_recipes.xlsx
+++ b/data/yummy_recipes.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\meal-plan\meal-plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933842FC-D29C-4846-BF56-7465C02745AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1019701E-2A9A-4BCA-BDF4-7E1D21201F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="recipes" sheetId="1" r:id="rId1"/>
     <sheet name="additional" sheetId="2" r:id="rId2"/>
     <sheet name="all_additional_items" sheetId="3" r:id="rId3"/>
+    <sheet name="all_recipes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>urls</t>
   </si>
@@ -159,6 +160,9 @@
   </si>
   <si>
     <t>https://www.allrecipes.com/recipe/228823/quick-beef-stir-fry/</t>
+  </si>
+  <si>
+    <t>anything premade</t>
   </si>
 </sst>
 </file>
@@ -498,78 +502,57 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.578125" customWidth="1"/>
+    <col min="1" max="1" width="72.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{71C9C92E-BCB9-48B7-8EA1-01F04EC14AA2}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{041221A0-58DC-46C0-AE5C-0FDBB4B2D85B}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{87A068A2-7D1F-40C1-A42C-6BD1F63A02FC}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{B51DFFE0-ECEE-4DB7-ADC0-33533948F5D1}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{D92C971C-5BB3-47F3-8B5E-578160F9A731}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{23EAD6D1-3091-4AE4-AC20-26589C907067}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{7BA0013B-003C-4794-AA79-A5CFD1D497AD}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{BAA8351E-A85B-49ED-92D1-343D076DC86B}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{C0BCD335-A9A2-4D9D-9F79-C2DAF870EAAA}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C1454F69-D1CC-4072-A6BE-AB62B01D9B83}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{4423AB93-097B-4000-A31D-C2E47745CAF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -578,16 +561,16 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.83984375" customWidth="1"/>
-    <col min="2" max="2" width="19.578125" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -595,57 +578,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -657,19 +640,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9BC077-CABC-40DD-9533-1D01791B0D65}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.578125" customWidth="1"/>
-    <col min="2" max="2" width="11.578125" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -677,67 +660,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -745,7 +728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -753,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -761,32 +744,116 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B8EF32-80F5-49A5-A8DC-8A724AD1D299}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{DB8AB2BC-CAB3-472B-AC21-81AE0566E929}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{5A85E07B-3E1B-46C7-90A1-45DE7DF1B91F}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{5CA7BF6E-2412-4F47-9262-4D1C2BC857CF}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{BE182DBC-4FAA-4919-ACC8-0F6E7EA04C75}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{A9660B68-FA88-484F-B63C-97575AA0FB82}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{DD34B27F-D82F-4762-A3DC-74D321BC218A}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{3F6FB65E-E6AE-4392-B921-06F9246D526A}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{FF10F176-2549-418C-905B-99198573DA88}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{542583A7-6449-4C0A-9F46-33A01943E5CA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/yummy_recipes.xlsx
+++ b/data/yummy_recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\meal-plan\meal-plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1019701E-2A9A-4BCA-BDF4-7E1D21201F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FC8895-023F-4DB2-9F79-474826BB8284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="recipes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>urls</t>
   </si>
@@ -163,6 +163,24 @@
   </si>
   <si>
     <t>anything premade</t>
+  </si>
+  <si>
+    <t>Juice</t>
+  </si>
+  <si>
+    <t>fruit snacks</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>granola bars</t>
+  </si>
+  <si>
+    <t>pasta</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
 </sst>
 </file>
@@ -501,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +535,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -558,10 +576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63316E3-DAF7-448C-A1AD-F7E443C3762C}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,11 +643,41 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -640,10 +688,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9BC077-CABC-40DD-9533-1D01791B0D65}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,6 +822,11 @@
         <v>44</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -784,7 +837,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/yummy_recipes.xlsx
+++ b/data/yummy_recipes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\meal-plan\meal-plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FC8895-023F-4DB2-9F79-474826BB8284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB754C2-2F25-4272-9CD4-0AE8C23AE81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="-240" windowWidth="29280" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="recipes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>urls</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>rice</t>
+  </si>
+  <si>
+    <t>Pita bread</t>
+  </si>
+  <si>
+    <t>sausage ravioli</t>
+  </si>
+  <si>
+    <t>frozen chicken tenders</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
 </sst>
 </file>
@@ -519,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,10 +588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63316E3-DAF7-448C-A1AD-F7E443C3762C}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,11 +685,41 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -691,7 +733,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +879,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/yummy_recipes.xlsx
+++ b/data/yummy_recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\meal-plan\meal-plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB754C2-2F25-4272-9CD4-0AE8C23AE81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6CE039-2150-4221-80A4-08D7A308A4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="-240" windowWidth="29280" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="recipes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>urls</t>
   </si>
@@ -84,9 +84,6 @@
     <t xml:space="preserve">tortellini </t>
   </si>
   <si>
-    <t>ravioli</t>
-  </si>
-  <si>
     <t>flavored rice packages</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>granola bars</t>
   </si>
   <si>
-    <t>pasta</t>
-  </si>
-  <si>
     <t>rice</t>
   </si>
   <si>
@@ -193,6 +187,18 @@
   </si>
   <si>
     <t>salad</t>
+  </si>
+  <si>
+    <t>chapstick</t>
+  </si>
+  <si>
+    <t>roticery chicken</t>
+  </si>
+  <si>
+    <t>ravioli (sausage)</t>
+  </si>
+  <si>
+    <t>frozen fruits</t>
   </si>
 </sst>
 </file>
@@ -264,6 +270,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,7 +542,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,13 +557,11 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -578,20 +586,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C1454F69-D1CC-4072-A6BE-AB62B01D9B83}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{4423AB93-097B-4000-A31D-C2E47745CAF2}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{CE7ACBA7-F8B9-445A-90A0-42A79765B338}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63316E3-DAF7-448C-A1AD-F7E443C3762C}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +627,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,87 +647,92 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
+      <c r="A21" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>27</v>
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -730,10 +742,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9BC077-CABC-40DD-9533-1D01791B0D65}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,32 +794,32 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,37 +848,47 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +901,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,47 +916,47 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/yummy_recipes.xlsx
+++ b/data/yummy_recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\meal-plan\meal-plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6CE039-2150-4221-80A4-08D7A308A4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF26A37-4A9A-4811-B0DA-79D5F9F26EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="recipes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>urls</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>frozen fruits</t>
+  </si>
+  <si>
+    <t>pepporoni</t>
   </si>
 </sst>
 </file>
@@ -270,10 +273,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +556,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -586,7 +585,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{CE7ACBA7-F8B9-445A-90A0-42A79765B338}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1A08466A-8E93-4DDC-8A1D-907DD3DDA20A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -595,10 +594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63316E3-DAF7-448C-A1AD-F7E443C3762C}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,6 +732,11 @@
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -900,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B8EF32-80F5-49A5-A8DC-8A724AD1D299}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/yummy_recipes.xlsx
+++ b/data/yummy_recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\meal-plan\meal-plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF26A37-4A9A-4811-B0DA-79D5F9F26EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962F2F06-9E39-476D-ADA4-91C583EBC088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="recipes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>urls</t>
   </si>
@@ -42,9 +42,6 @@
     <t>1 loaf of sliced bread</t>
   </si>
   <si>
-    <t>1 package of sliced turkey</t>
-  </si>
-  <si>
     <t>paper towels</t>
   </si>
   <si>
@@ -54,18 +51,9 @@
     <t>toilet paper</t>
   </si>
   <si>
-    <t>1 bag of chips</t>
-  </si>
-  <si>
     <t>tin-foil</t>
   </si>
   <si>
-    <t>bag of bagels</t>
-  </si>
-  <si>
-    <t>1 carton of milk</t>
-  </si>
-  <si>
     <t>strawberries</t>
   </si>
   <si>
@@ -102,24 +90,15 @@
     <t>granola</t>
   </si>
   <si>
-    <t>3 apples</t>
-  </si>
-  <si>
     <t>vanilla yogurt</t>
   </si>
   <si>
     <t>1 carton of eggs</t>
   </si>
   <si>
-    <t>colby jack cheese</t>
-  </si>
-  <si>
     <t>hotdogs</t>
   </si>
   <si>
-    <t>box of cherios</t>
-  </si>
-  <si>
     <t>https://www.yummly.com/recipe/Easy-Khachapuri-9139675?prm-v1</t>
   </si>
   <si>
@@ -180,18 +159,12 @@
     <t>Pita bread</t>
   </si>
   <si>
-    <t>sausage ravioli</t>
-  </si>
-  <si>
     <t>frozen chicken tenders</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>chapstick</t>
-  </si>
-  <si>
     <t>roticery chicken</t>
   </si>
   <si>
@@ -201,7 +174,31 @@
     <t>frozen fruits</t>
   </si>
   <si>
-    <t>pepporoni</t>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>ravioli</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>bagels</t>
+  </si>
+  <si>
+    <t>sliced turkey</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>chips</t>
+  </si>
+  <si>
+    <t>cereal</t>
+  </si>
+  <si>
+    <t>https://www.tasteofhome.com/recipes/spinach-quesadillas/</t>
   </si>
 </sst>
 </file>
@@ -540,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,11 +553,13 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -585,19 +584,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{1A08466A-8E93-4DDC-8A1D-907DD3DDA20A}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{548D99A7-24D9-4849-9F37-17C32BA71667}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{EAB2DD52-4CF0-43AC-B123-B6E8410ACBB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63316E3-DAF7-448C-A1AD-F7E443C3762C}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -626,117 +626,107 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +739,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,131 +758,131 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -902,10 +892,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B8EF32-80F5-49A5-A8DC-8A724AD1D299}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,47 +910,52 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -974,6 +969,7 @@
     <hyperlink ref="A8" r:id="rId7" xr:uid="{3F6FB65E-E6AE-4392-B921-06F9246D526A}"/>
     <hyperlink ref="A9" r:id="rId8" xr:uid="{FF10F176-2549-418C-905B-99198573DA88}"/>
     <hyperlink ref="A10" r:id="rId9" xr:uid="{542583A7-6449-4C0A-9F46-33A01943E5CA}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{6BC89949-E574-4AE8-B650-ED9EBA651EF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/yummy_recipes.xlsx
+++ b/data/yummy_recipes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\meal-plan\meal-plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962F2F06-9E39-476D-ADA4-91C583EBC088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B349B34-A8AA-45FA-8CB4-8419F038305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="recipes" sheetId="1" r:id="rId1"/>
@@ -538,48 +538,48 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="72.5703125" customWidth="1"/>
+    <col min="1" max="1" width="72.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
@@ -600,13 +600,13 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="55.83984375" customWidth="1"/>
+    <col min="2" max="2" width="19.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -614,117 +614,117 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -742,13 +742,13 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.578125" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -756,67 +756,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -824,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -840,47 +840,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -895,65 +895,65 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="72.5703125" customWidth="1"/>
+    <col min="1" max="1" width="72.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>

--- a/data/yummy_recipes.xlsx
+++ b/data/yummy_recipes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\meal-plan\meal-plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B349B34-A8AA-45FA-8CB4-8419F038305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99970E35-6A4C-4092-914F-54ECCB13C1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>urls</t>
   </si>
@@ -171,9 +171,6 @@
     <t>ravioli (sausage)</t>
   </si>
   <si>
-    <t>frozen fruits</t>
-  </si>
-  <si>
     <t>milk</t>
   </si>
   <si>
@@ -199,6 +196,27 @@
   </si>
   <si>
     <t>https://www.tasteofhome.com/recipes/spinach-quesadillas/</t>
+  </si>
+  <si>
+    <t>https://www.cookinglight.com/recipes/creamy-chicken-quesadillas</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/16248/easy-homemade-chili/</t>
+  </si>
+  <si>
+    <t>Protein shake</t>
+  </si>
+  <si>
+    <t>toasted raviolli</t>
+  </si>
+  <si>
+    <t>mochi</t>
+  </si>
+  <si>
+    <t>https://gimmedelicious.com/20-minute-meal-prep-chicken-rice-and-broccoli/</t>
+  </si>
+  <si>
+    <t>spaghetti and ground beef</t>
   </si>
 </sst>
 </file>
@@ -538,7 +556,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -553,13 +571,11 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
@@ -585,19 +601,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{548D99A7-24D9-4849-9F37-17C32BA71667}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{EAB2DD52-4CF0-43AC-B123-B6E8410ACBB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63316E3-DAF7-448C-A1AD-F7E443C3762C}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -616,7 +631,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -626,27 +641,27 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -656,7 +671,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -686,7 +701,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -712,21 +727,6 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -736,10 +736,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9BC077-CABC-40DD-9533-1D01791B0D65}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -885,6 +885,31 @@
         <v>44</v>
       </c>
     </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -892,10 +917,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B8EF32-80F5-49A5-A8DC-8A724AD1D299}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -955,7 +980,22 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -970,6 +1010,9 @@
     <hyperlink ref="A9" r:id="rId8" xr:uid="{FF10F176-2549-418C-905B-99198573DA88}"/>
     <hyperlink ref="A10" r:id="rId9" xr:uid="{542583A7-6449-4C0A-9F46-33A01943E5CA}"/>
     <hyperlink ref="A11" r:id="rId10" xr:uid="{6BC89949-E574-4AE8-B650-ED9EBA651EF5}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{48772FF6-4479-4A41-B28F-473F8B35979E}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{A57E0803-F64D-49E4-98A1-CD289C0123E3}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{46169FC2-F509-4085-B7B5-E9DF3ABBB1BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/yummy_recipes.xlsx
+++ b/data/yummy_recipes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\meal-plan\meal-plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99970E35-6A4C-4092-914F-54ECCB13C1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC44E763-FBBE-4ECE-AE78-B70F4B2FE7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="recipes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>urls</t>
   </si>
@@ -198,9 +198,6 @@
     <t>https://www.tasteofhome.com/recipes/spinach-quesadillas/</t>
   </si>
   <si>
-    <t>https://www.cookinglight.com/recipes/creamy-chicken-quesadillas</t>
-  </si>
-  <si>
     <t>https://www.allrecipes.com/recipe/16248/easy-homemade-chili/</t>
   </si>
   <si>
@@ -217,6 +214,30 @@
   </si>
   <si>
     <t>spaghetti and ground beef</t>
+  </si>
+  <si>
+    <t>https://tasty.co/recipe/3-ingredient-teriyaki-chicken</t>
+  </si>
+  <si>
+    <t>https://tasty.co/recipe/mushroom-risotto</t>
+  </si>
+  <si>
+    <t>Chicken Drumsticks with Rice</t>
+  </si>
+  <si>
+    <t>Chicken and Penne Pasta with Vodka sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoothies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground Beef and Macoroni </t>
+  </si>
+  <si>
+    <t>turkey pesto panini</t>
+  </si>
+  <si>
+    <t>Grilled Cheese</t>
   </si>
 </sst>
 </file>
@@ -559,43 +580,43 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.578125" customWidth="1"/>
+    <col min="1" max="1" width="72.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
@@ -612,16 +633,16 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.83984375" customWidth="1"/>
-    <col min="2" max="2" width="19.578125" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -629,102 +650,102 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -738,17 +759,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9BC077-CABC-40DD-9533-1D01791B0D65}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.578125" customWidth="1"/>
-    <col min="2" max="2" width="11.578125" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -756,67 +777,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -824,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -832,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -840,74 +861,74 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -917,85 +938,120 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B8EF32-80F5-49A5-A8DC-8A724AD1D299}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.578125" customWidth="1"/>
+    <col min="1" max="1" width="72.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1010,9 +1066,9 @@
     <hyperlink ref="A9" r:id="rId8" xr:uid="{FF10F176-2549-418C-905B-99198573DA88}"/>
     <hyperlink ref="A10" r:id="rId9" xr:uid="{542583A7-6449-4C0A-9F46-33A01943E5CA}"/>
     <hyperlink ref="A11" r:id="rId10" xr:uid="{6BC89949-E574-4AE8-B650-ED9EBA651EF5}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{48772FF6-4479-4A41-B28F-473F8B35979E}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{A57E0803-F64D-49E4-98A1-CD289C0123E3}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{46169FC2-F509-4085-B7B5-E9DF3ABBB1BD}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{A57E0803-F64D-49E4-98A1-CD289C0123E3}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{46169FC2-F509-4085-B7B5-E9DF3ABBB1BD}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{5F95AECE-99E8-4894-A6C0-0C8034D1F4A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
